--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,10 +435,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>462733</v>
+        <v>458601</v>
       </c>
       <c r="B2" t="n">
-        <v>106</v>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>458611</v>
+      </c>
+      <c r="B3" t="n">
+        <v>29.5</v>
       </c>
     </row>
   </sheetData>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,28 +424,4173 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>NRO. DE FACTURA</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MONTO</t>
-        </is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA6C086F4F74E01B26BDFFD74&amp;numero=555218&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>555218</v>
+      </c>
+      <c r="C1" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>458601</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8CBD3294F7C30DF7DFFD74&amp;numero=32568&amp;t=2</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>29.5</v>
+        <v>32568</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33.6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>458611</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA3DD558EA74E01B26BDFFD74&amp;numero=547467&amp;t=2</t>
+        </is>
       </c>
       <c r="B3" t="n">
+        <v>547467</v>
+      </c>
+      <c r="C3" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761AF54D7668A548713376FEB1DDC4D06CECA3D34DFFD74&amp;numero=28721&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>28721</v>
+      </c>
+      <c r="C4" t="n">
+        <v>126.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC6CB1478B74E01B26BDFFD74&amp;numero=641228&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>641228</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAE740EDEF74E01B26BDFFD74&amp;numero=575891&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>575891</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB35E5603174E01B26BDFFD74&amp;numero=589085&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>589085</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB7976BD2A74E01B26BDFFD74&amp;numero=600421&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>600421</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAEBC58BAA74E01B26BDFFD74&amp;numero=576649&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>576649</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA64580D1074E01B26BDFFD74&amp;numero=553928&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>553928</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8C2AB714F7C30DF7DFFD74&amp;numero=32562&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>32562</v>
+      </c>
+      <c r="C11" t="n">
+        <v>65.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA70CEA9EE74E01B26BDFFD74&amp;numero=556019&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>556019</v>
+      </c>
+      <c r="C12" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB9302A7EF74E01B26BDFFD74&amp;numero=604707&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>604707</v>
+      </c>
+      <c r="C13" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB4F4E328C74E01B26BDFFD74&amp;numero=593348&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>593348</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F93CAAB74E01B26BDFFD74&amp;numero=558497&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>558497</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB3A63E36F74E01B26BDFFD74&amp;numero=589839&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>589839</v>
+      </c>
+      <c r="C16" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAEE7D58AF74E01B26BDFFD74&amp;numero=577105&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>577105</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC2759345074E01B26BDFFD74&amp;numero=629594&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>629594</v>
+      </c>
+      <c r="C18" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAFF69510B74E01B26BDFFD74&amp;numero=579944&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>579944</v>
+      </c>
+      <c r="C19" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC19DC23EA74E01B26BDFFD74&amp;numero=627331&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>627331</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA5BC75CF274E01B26BDFFD74&amp;numero=552491&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>552491</v>
+      </c>
+      <c r="C21" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAD47D766C74E01B26BDFFD74&amp;numero=572743&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>572743</v>
+      </c>
+      <c r="C22" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC9C4E001274E01B26BDFFD74&amp;numero=649216&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>649216</v>
+      </c>
+      <c r="C23" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB3768F2F374E01B26BDFFD74&amp;numero=589339&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>589339</v>
+      </c>
+      <c r="C24" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC9D653C6C74E01B26BDFFD74&amp;numero=649399&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>649399</v>
+      </c>
+      <c r="C25" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7C8FB26F74E01B26BDFFD74&amp;numero=557991&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>557991</v>
+      </c>
+      <c r="C26" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA39F2797374E01B26BDFFD74&amp;numero=546815&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>546815</v>
+      </c>
+      <c r="C27" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC2B0B3FCB74E01B26BDFFD74&amp;numero=630214&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>630214</v>
+      </c>
+      <c r="C28" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB29026CF374E01B26BDFFD74&amp;numero=586923&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>586923</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31.15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F90BD7374E01B26BDFFD74&amp;numero=558495&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>558495</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB83911A9074E01B26BDFFD74&amp;numero=602116&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>602116</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F891C4B74E01B26BDFFD74&amp;numero=558490&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>558490</v>
+      </c>
+      <c r="C32" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC62F8922E74E01B26BDFFD74&amp;numero=639597&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>639597</v>
+      </c>
+      <c r="C33" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F7FF49174E01B26BDFFD74&amp;numero=558484&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>558484</v>
+      </c>
+      <c r="C34" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC388B5D7274E01B26BDFFD74&amp;numero=632479&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>632479</v>
+      </c>
+      <c r="C35" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B760818FBC81442E650F33858275C3ACC04CC55DD66EFD74&amp;numero=463166&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>463166</v>
+      </c>
+      <c r="C36" t="n">
+        <v>41.55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F7CE75074E01B26BDFFD74&amp;numero=558482&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>558482</v>
+      </c>
+      <c r="C37" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA74D1948A74E01B26BDFFD74&amp;numero=556692&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>556692</v>
+      </c>
+      <c r="C38" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC8D70754E74E01B26BDFFD74&amp;numero=646722&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>646722</v>
+      </c>
+      <c r="C39" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB3674CEEB74E01B26BDFFD74&amp;numero=589179&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>589179</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBF615D0B374E01B26BDFFD74&amp;numero=621329&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>621329</v>
+      </c>
+      <c r="C41" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBC4E4BC9174E01B26BDFFD74&amp;numero=613076&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>613076</v>
+      </c>
+      <c r="C42" t="n">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC92399749174E01B26BDFFD74&amp;numero=500116&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>500116</v>
+      </c>
+      <c r="C43" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F8F36CD74E01B26BDFFD74&amp;numero=558494&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>558494</v>
+      </c>
+      <c r="C44" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC3931AF9074E01B26BDFFD74&amp;numero=632588&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>632588</v>
+      </c>
+      <c r="C45" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F8AA2F174E01B26BDFFD74&amp;numero=558491&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>558491</v>
+      </c>
+      <c r="C46" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8C8C5E84F7C30DF7DFFD74&amp;numero=32566&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>32566</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761AF54D7668A548713376FEC1EC7C8E6CECA3D34DFFD74&amp;numero=31415&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>31415</v>
+      </c>
+      <c r="C48" t="n">
+        <v>106.31</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC9134D04D74E01B26BDFFD74&amp;numero=647354&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>647354</v>
+      </c>
+      <c r="C49" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA6C51AD5074E01B26BDFFD74&amp;numero=555266&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>555266</v>
+      </c>
+      <c r="C50" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F985E8B74E01B26BDFFD74&amp;numero=558500&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>558500</v>
+      </c>
+      <c r="C51" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAC6E3683074E01B26BDFFD74&amp;numero=570461&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>570461</v>
+      </c>
+      <c r="C52" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC90961F4E74E01B26BDFFD74&amp;numero=647250&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>647250</v>
+      </c>
+      <c r="C53" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBE512F4EB74E01B26BDFFD74&amp;numero=618475&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>618475</v>
+      </c>
+      <c r="C54" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC3C40763074E01B26BDFFD74&amp;numero=633101&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>633101</v>
+      </c>
+      <c r="C55" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBC700E5D274E01B26BDFFD74&amp;numero=613430&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>613430</v>
+      </c>
+      <c r="C56" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBD894B6EB74E01B26BDFFD74&amp;numero=616379&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>616379</v>
+      </c>
+      <c r="C57" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC9C579464C74E01B26BDFFD74&amp;numero=527274&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>527274</v>
+      </c>
+      <c r="C58" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC9564C94CD74E01B26BDFFD74&amp;numero=508622&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>508622</v>
+      </c>
+      <c r="C59" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC79ECBB0D74E01B26BDFFD74&amp;numero=643448&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>643448</v>
+      </c>
+      <c r="C60" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA793319F174E01B26BDFFD74&amp;numero=557427&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>557427</v>
+      </c>
+      <c r="C61" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7D46CD6E74E01B26BDFFD74&amp;numero=558111&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>558111</v>
+      </c>
+      <c r="C62" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761AF54D7668A548713376FEC3561EA96CECA3D34DFFD74&amp;numero=31652&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>31652</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA48CE7D9174E01B26BDFFD74&amp;numero=549308&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>549308</v>
+      </c>
+      <c r="C64" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCCA24D08CA74E01B26BDFFD74&amp;numero=650222&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>650222</v>
+      </c>
+      <c r="C65" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB7743B09074E01B26BDFFD74&amp;numero=600052&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>600052</v>
+      </c>
+      <c r="C66" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBB82C82D174E01B26BDFFD74&amp;numero=610942&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>610942</v>
+      </c>
+      <c r="C67" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA57D53B3274E01B26BDFFD74&amp;numero=551829&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>551829</v>
+      </c>
+      <c r="C68" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAF4393DEF74E01B26BDFFD74&amp;numero=578067&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>578067</v>
+      </c>
+      <c r="C69" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA5A2FF40F74E01B26BDFFD74&amp;numero=552224&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>552224</v>
+      </c>
+      <c r="C70" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB63E0016D74E01B26BDFFD74&amp;numero=596799&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>596799</v>
+      </c>
+      <c r="C71" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC235C643274E01B26BDFFD74&amp;numero=628925&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>628925</v>
+      </c>
+      <c r="C72" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAD50236D174E01B26BDFFD74&amp;numero=572830&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>572830</v>
+      </c>
+      <c r="C73" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAE9F4270B74E01B26BDFFD74&amp;numero=576344&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>576344</v>
+      </c>
+      <c r="C74" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7FC7ABF074E01B26BDFFD74&amp;numero=558531&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>558531</v>
+      </c>
+      <c r="C75" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA60D0BB1274E01B26BDFFD74&amp;numero=553336&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>553336</v>
+      </c>
+      <c r="C76" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB34528B3174E01B26BDFFD74&amp;numero=588821&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>588821</v>
+      </c>
+      <c r="C77" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC5DA1622A74E01B26BDFFD74&amp;numero=638701&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>638701</v>
+      </c>
+      <c r="C78" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAFD470D5174E01B26BDFFD74&amp;numero=579586&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>579586</v>
+      </c>
+      <c r="C79" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8AD4EB14F7C30DF7DFFD74&amp;numero=32548&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>32548</v>
+      </c>
+      <c r="C80" t="n">
+        <v>442.05</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB05F7C88A74E01B26BDFFD74&amp;numero=581044&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>581044</v>
+      </c>
+      <c r="C81" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAB37B252A74E01B26BDFFD74&amp;numero=567205&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>567205</v>
+      </c>
+      <c r="C82" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCCA3C2DFF274E01B26BDFFD74&amp;numero=650467&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>650467</v>
+      </c>
+      <c r="C83" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB3DEB356A74E01B26BDFFD74&amp;numero=590431&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>590431</v>
+      </c>
+      <c r="C84" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8A5AD894F7C30DF7DFFD74&amp;numero=32543&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>32543</v>
+      </c>
+      <c r="C85" t="n">
+        <v>202.05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB28D4A63074E01B26BDFFD74&amp;numero=586893&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>586893</v>
+      </c>
+      <c r="C86" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB76328EAB74E01B26BDFFD74&amp;numero=599873&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>599873</v>
+      </c>
+      <c r="C87" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCCA7C136AF74E01B26BDFFD74&amp;numero=651137&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>651137</v>
+      </c>
+      <c r="C88" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC18C360EF74E01B26BDFFD74&amp;numero=627147&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>627147</v>
+      </c>
+      <c r="C89" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA85FF29D074E01B26BDFFD74&amp;numero=559574&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>559574</v>
+      </c>
+      <c r="C90" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8E74A6B4F7C30DF7DFFD74&amp;numero=32586&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>32586</v>
+      </c>
+      <c r="C91" t="n">
+        <v>88.44</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB23B771EA74E01B26BDFFD74&amp;numero=586035&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>586035</v>
+      </c>
+      <c r="C92" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBDF1B8D5274E01B26BDFFD74&amp;numero=617474&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>617474</v>
+      </c>
+      <c r="C93" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7ECEF41374E01B26BDFFD74&amp;numero=558368&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>558368</v>
+      </c>
+      <c r="C94" t="n">
+        <v>654.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBC487A86D74E01B26BDFFD74&amp;numero=613015&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>613015</v>
+      </c>
+      <c r="C95" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBADA5CF0B74E01B26BDFFD74&amp;numero=609176&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>609176</v>
+      </c>
+      <c r="C96" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8BE17884F7C30DF7DFFD74&amp;numero=32559&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>32559</v>
+      </c>
+      <c r="C97" t="n">
+        <v>35.92</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCCA254A9F274E01B26BDFFD74&amp;numero=650227&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>650227</v>
+      </c>
+      <c r="C98" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA86DAE3CE74E01B26BDFFD74&amp;numero=559718&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>559718</v>
+      </c>
+      <c r="C99" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC68DC23AF74E01B26BDFFD74&amp;numero=640585&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>640585</v>
+      </c>
+      <c r="C100" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8CD59CF4F7C30DF7DFFD74&amp;numero=32569&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>32569</v>
+      </c>
+      <c r="C101" t="n">
+        <v>26.46</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B7607E439C9E5E5597E6D422096B5DD5175F03F9C66EFD74&amp;numero=24165&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>24165</v>
+      </c>
+      <c r="C102" t="n">
+        <v>35.01</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC0DF1E88B74E01B26BDFFD74&amp;numero=625332&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>625332</v>
+      </c>
+      <c r="C103" t="n">
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC6937B13174E01B26BDFFD74&amp;numero=640645&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>640645</v>
+      </c>
+      <c r="C104" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7FA61A2A74E01B26BDFFD74&amp;numero=558509&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>558509</v>
+      </c>
+      <c r="C105" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7EE75E0B74E01B26BDFFD74&amp;numero=558384&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>558384</v>
+      </c>
+      <c r="C106" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBD8D7DA6C74E01B26BDFFD74&amp;numero=616423&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>616423</v>
+      </c>
+      <c r="C107" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC9D89DB6C74E01B26BDFFD74&amp;numero=649423&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>649423</v>
+      </c>
+      <c r="C108" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB31C884F174E01B26BDFFD74&amp;numero=588395&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>588395</v>
+      </c>
+      <c r="C109" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8B05BE94F7C30DF7DFFD74&amp;numero=32550&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>32550</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB35CCF63074E01B26BDFFD74&amp;numero=589069&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>589069</v>
+      </c>
+      <c r="C111" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC7EE6D6EF74E01B26BDFFD74&amp;numero=644283&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>644283</v>
+      </c>
+      <c r="C112" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBDFAE094D74E01B26BDFFD74&amp;numero=617570&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>617570</v>
+      </c>
+      <c r="C113" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC1A1C3A3174E01B26BDFFD74&amp;numero=627373&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>627373</v>
+      </c>
+      <c r="C114" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAFE1CACCD74E01B26BDFFD74&amp;numero=579726&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>579726</v>
+      </c>
+      <c r="C115" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8BF9E304F7C30DF7DFFD74&amp;numero=32560&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>32560</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8A8BACA4F7C30DF7DFFD74&amp;numero=32545&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>32545</v>
+      </c>
+      <c r="C117" t="n">
+        <v>81.52</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAB1280D6C74E01B26BDFFD74&amp;numero=566815&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>566815</v>
+      </c>
+      <c r="C118" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBF2D01B9374E01B26BDFFD74&amp;numero=620780&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>620780</v>
+      </c>
+      <c r="C119" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB7905D2F374E01B26BDFFD74&amp;numero=600347&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>600347</v>
+      </c>
+      <c r="C120" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7FB0C88A74E01B26BDFFD74&amp;numero=558516&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>558516</v>
+      </c>
+      <c r="C121" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC91F210BCA74E01B26BDFFD74&amp;numero=499366&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>499366</v>
+      </c>
+      <c r="C122" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAEDC7C44B74E01B26BDFFD74&amp;numero=576986&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>576986</v>
+      </c>
+      <c r="C123" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7DBDD22C74E01B26BDFFD74&amp;numero=558189&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>558189</v>
+      </c>
+      <c r="C124" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC8298E26F74E01B26BDFFD74&amp;numero=644903&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>644903</v>
+      </c>
+      <c r="C125" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC3D562BEF74E01B26BDFFD74&amp;numero=633283&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>633283</v>
+      </c>
+      <c r="C126" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F18320D74E01B26BDFFD74&amp;numero=558416&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>558416</v>
+      </c>
+      <c r="C127" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB1E1EA51074E01B26BDFFD74&amp;numero=585096&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>585096</v>
+      </c>
+      <c r="C128" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC7640CA0F74E01B26BDFFD74&amp;numero=642832&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>642832</v>
+      </c>
+      <c r="C129" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC244BF44C74E01B26BDFFD74&amp;numero=629082&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>629082</v>
+      </c>
+      <c r="C130" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8D1EDAD4F7C30DF7DFFD74&amp;numero=32572&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>32572</v>
+      </c>
+      <c r="C131" t="n">
+        <v>104.16</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8EA57AC4F7C30DF7DFFD74&amp;numero=32588&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>32588</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBC43CE3D274E01B26BDFFD74&amp;numero=612966&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>612966</v>
+      </c>
+      <c r="C133" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB60E6979274E01B26BDFFD74&amp;numero=596300&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>596300</v>
+      </c>
+      <c r="C134" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F860F1374E01B26BDFFD74&amp;numero=558488&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>558488</v>
+      </c>
+      <c r="C135" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCABC7E462C74E01B26BDFFD74&amp;numero=568717&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>568717</v>
+      </c>
+      <c r="C136" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8AED54C4F7C30DF7DFFD74&amp;numero=32549&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>32549</v>
+      </c>
+      <c r="C137" t="n">
+        <v>212.25</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC78D88BF074E01B26BDFFD74&amp;numero=643267&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>643267</v>
+      </c>
+      <c r="C138" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA4703336B74E01B26BDFFD74&amp;numero=549007&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>549007</v>
+      </c>
+      <c r="C139" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC2347076B74E01B26BDFFD74&amp;numero=628911&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>628911</v>
+      </c>
+      <c r="C140" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBC8EDC1B374E01B26BDFFD74&amp;numero=613753&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>613753</v>
+      </c>
+      <c r="C141" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB072C02D074E01B26BDFFD74&amp;numero=581246&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>581246</v>
+      </c>
+      <c r="C142" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBFA14277174E01B26BDFFD74&amp;numero=621999&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>621999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC9A99994A74E01B26BDFFD74&amp;numero=648930&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>648930</v>
+      </c>
+      <c r="C144" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB61B188AA74E01B26BDFFD74&amp;numero=596433&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>596433</v>
+      </c>
+      <c r="C145" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC91EFAE62A74E01B26BDFFD74&amp;numero=499341&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>499341</v>
+      </c>
+      <c r="C146" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC0CD6184D74E01B26BDFFD74&amp;numero=625146&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>625146</v>
+      </c>
+      <c r="C147" t="n">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC557D086E74E01B26BDFFD74&amp;numero=637335&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>637335</v>
+      </c>
+      <c r="C148" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBADC5DA2B74E01B26BDFFD74&amp;numero=609197&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>609197</v>
+      </c>
+      <c r="C149" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1020703023&amp;cuf=45D6DEA71262ECA68B9E561A7B40AF1788E72166E223B857D67DFFD74&amp;numero=4319035&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>4319035</v>
+      </c>
+      <c r="C150" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB075E5D6B74E01B26BDFFD74&amp;numero=581279&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>581279</v>
+      </c>
+      <c r="C151" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBB259BA3274E01B26BDFFD74&amp;numero=609965&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>609965</v>
+      </c>
+      <c r="C152" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8D681894F7C30DF7DFFD74&amp;numero=32575&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>32575</v>
+      </c>
+      <c r="C153" t="n">
+        <v>319.9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB143087D274E01B26BDFFD74&amp;numero=583430&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>583430</v>
+      </c>
+      <c r="C154" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB8F90B2AF74E01B26BDFFD74&amp;numero=604129&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>604129</v>
+      </c>
+      <c r="C155" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA301FD36C74E01B26BDFFD74&amp;numero=545167&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>545167</v>
+      </c>
+      <c r="C156" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB94EDFD3074E01B26BDFFD74&amp;numero=605029&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>605029</v>
+      </c>
+      <c r="C157" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB31284D4C74E01B26BDFFD74&amp;numero=588290&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>588290</v>
+      </c>
+      <c r="C158" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBE151A72D74E01B26BDFFD74&amp;numero=617845&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>617845</v>
+      </c>
+      <c r="C159" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC9273C3DD174E01B26BDFFD74&amp;numero=500726&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>500726</v>
+      </c>
+      <c r="C160" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F92440E74E01B26BDFFD74&amp;numero=558496&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>558496</v>
+      </c>
+      <c r="C161" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA36298A8F74E01B26BDFFD74&amp;numero=546180&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>546180</v>
+      </c>
+      <c r="C162" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8C5B8A94F7C30DF7DFFD74&amp;numero=32564&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>32564</v>
+      </c>
+      <c r="C163" t="n">
+        <v>164.41</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7FA7A0D274E01B26BDFFD74&amp;numero=558510&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>558510</v>
+      </c>
+      <c r="C164" t="n">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBE3619B6A74E01B26BDFFD74&amp;numero=618191&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>618191</v>
+      </c>
+      <c r="C165" t="n">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC28DCC71274E01B26BDFFD74&amp;numero=629848&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>629848</v>
+      </c>
+      <c r="C166" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB1668285374E01B26BDFFD74&amp;numero=583802&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>583802</v>
+      </c>
+      <c r="C167" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC8837C9D274E01B26BDFFD74&amp;numero=645846&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>645846</v>
+      </c>
+      <c r="C168" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB4BB183CA74E01B26BDFFD74&amp;numero=592742&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>592742</v>
+      </c>
+      <c r="C169" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA580C29AB74E01B26BDFFD74&amp;numero=551865&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>551865</v>
+      </c>
+      <c r="C170" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC19C3B9EB74E01B26BDFFD74&amp;numero=627315&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>627315</v>
+      </c>
+      <c r="C171" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8D4FAEE4F7C30DF7DFFD74&amp;numero=32574&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>32574</v>
+      </c>
+      <c r="C172" t="n">
+        <v>156.32</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBAB5EEC5374E01B26BDFFD74&amp;numero=608794&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>608794</v>
+      </c>
+      <c r="C173" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC93ED5322F74E01B26BDFFD74&amp;numero=504685&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>504685</v>
+      </c>
+      <c r="C174" t="n">
+        <v>48.62</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBBDCFFE1074E01B26BDFFD74&amp;numero=611888&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>611888</v>
+      </c>
+      <c r="C175" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA801A11AB74E01B26BDFFD74&amp;numero=558585&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>558585</v>
+      </c>
+      <c r="C176" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCCA558C23374E01B26BDFFD74&amp;numero=650733&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>650733</v>
+      </c>
+      <c r="C177" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7D63CB4B74E01B26BDFFD74&amp;numero=558130&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>558130</v>
+      </c>
+      <c r="C178" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC18EFA11374E01B26BDFFD74&amp;numero=627176&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>627176</v>
+      </c>
+      <c r="C179" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC1F7B0B4D74E01B26BDFFD74&amp;numero=628274&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>628274</v>
+      </c>
+      <c r="C180" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC465DE0CD74E01B26BDFFD74&amp;numero=634798&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>634798</v>
+      </c>
+      <c r="C181" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F9B6BCC74E01B26BDFFD74&amp;numero=558502&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>558502</v>
+      </c>
+      <c r="C182" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8CA4C8E4F7C30DF7DFFD74&amp;numero=32567&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>32567</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7FA1864E74E01B26BDFFD74&amp;numero=558506&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>558506</v>
+      </c>
+      <c r="C184" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB1E6F843274E01B26BDFFD74&amp;numero=585149&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>585149</v>
+      </c>
+      <c r="C185" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC6B154ACB74E01B26BDFFD74&amp;numero=640958&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>640958</v>
+      </c>
+      <c r="C186" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC298933AB74E01B26BDFFD74&amp;numero=629961&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>629961</v>
+      </c>
+      <c r="C187" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC93AA914B374E01B26BDFFD74&amp;numero=503985&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>503985</v>
+      </c>
+      <c r="C188" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA8A7DAD0B74E01B26BDFFD74&amp;numero=560328&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>560328</v>
+      </c>
+      <c r="C189" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC0826C10B74E01B26BDFFD74&amp;numero=624360&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>624360</v>
+      </c>
+      <c r="C190" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F99E53174E01B26BDFFD74&amp;numero=558501&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>558501</v>
+      </c>
+      <c r="C191" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761AF54D7668A548713376FEAF691B496CECA3D34DFFD74&amp;numero=28309&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>28309</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F8C298C74E01B26BDFFD74&amp;numero=558492&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>558492</v>
+      </c>
+      <c r="C193" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBCED76DAB74E01B26BDFFD74&amp;numero=614745&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>614745</v>
+      </c>
+      <c r="C194" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7FB869AB74E01B26BDFFD74&amp;numero=558521&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>558521</v>
+      </c>
+      <c r="C195" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8DB15704F7C30DF7DFFD74&amp;numero=32578&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>32578</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8E8D1114F7C30DF7DFFD74&amp;numero=32587&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>32587</v>
+      </c>
+      <c r="C197" t="n">
+        <v>35.79</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8C4320C4F7C30DF7DFFD74&amp;numero=32563&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>32563</v>
+      </c>
+      <c r="C198" t="n">
+        <v>50.68</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8D374484F7C30DF7DFFD74&amp;numero=32573&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>32573</v>
+      </c>
+      <c r="C199" t="n">
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8BC90ED4F7C30DF7DFFD74&amp;numero=32558&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>32558</v>
+      </c>
+      <c r="C200" t="n">
+        <v>46.64</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7D9AB9CD74E01B26BDFFD74&amp;numero=558166&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>558166</v>
+      </c>
+      <c r="C201" t="n">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1020703023&amp;cuf=45D6DEA71262ECA68E58817FFC0693BAAF9518758523B857D67DFFD74&amp;numero=4319868&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>4319868</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBF08197AC74E01B26BDFFD74&amp;numero=620393&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>620393</v>
+      </c>
+      <c r="C203" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAA83D566B74E01B26BDFFD74&amp;numero=565319&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>565319</v>
+      </c>
+      <c r="C204" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAD304921374E01B26BDFFD74&amp;numero=572496&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>572496</v>
+      </c>
+      <c r="C205" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8B1E28F4F7C30DF7DFFD74&amp;numero=32551&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>32551</v>
+      </c>
+      <c r="C206" t="n">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBDE5222CA74E01B26BDFFD74&amp;numero=617342&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>617342</v>
+      </c>
+      <c r="C207" t="n">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB980D8CB374E01B26BDFFD74&amp;numero=605553&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>605553</v>
+      </c>
+      <c r="C208" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC459D9E0A74E01B26BDFFD74&amp;numero=634672&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>634672</v>
+      </c>
+      <c r="C209" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC83F64F9374E01B26BDFFD74&amp;numero=645132&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>645132</v>
+      </c>
+      <c r="C210" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC707ECA5274E01B26BDFFD74&amp;numero=641866&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>641866</v>
+      </c>
+      <c r="C211" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAF08ED38C74E01B26BDFFD74&amp;numero=577452&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>577452</v>
+      </c>
+      <c r="C212" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA5072AACD74E01B26BDFFD74&amp;numero=550590&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>550590</v>
+      </c>
+      <c r="C213" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8D98ECA4F7C30DF7DFFD74&amp;numero=32577&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>32577</v>
+      </c>
+      <c r="C214" t="n">
+        <v>417.48</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC9269A7F9174E01B26BDFFD74&amp;numero=500620&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>500620</v>
+      </c>
+      <c r="C215" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB909D40AF74E01B26BDFFD74&amp;numero=604305&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>604305</v>
+      </c>
+      <c r="C216" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBF2A254CB74E01B26BDFFD74&amp;numero=620750&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>620750</v>
+      </c>
+      <c r="C217" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAABFD1D9174E01B26BDFFD74&amp;numero=565948&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>565948</v>
+      </c>
+      <c r="C218" t="n">
+        <v>465.5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8B4EFD04F7C30DF7DFFD74&amp;numero=32553&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>32553</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB1DD8745274E01B26BDFFD74&amp;numero=585050&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>585050</v>
+      </c>
+      <c r="C220" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC9E302013374E01B26BDFFD74&amp;numero=532229&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>532229</v>
+      </c>
+      <c r="C221" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7CAE36F174E01B26BDFFD74&amp;numero=558011&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>558011</v>
+      </c>
+      <c r="C222" t="n">
+        <v>705.5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC940329F5174E01B26BDFFD74&amp;numero=504914&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>504914</v>
+      </c>
+      <c r="C223" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA4121289074E01B26BDFFD74&amp;numero=548020&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>548020</v>
+      </c>
+      <c r="C224" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBC6C0CF9074E01B26BDFFD74&amp;numero=613388&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>613388</v>
+      </c>
+      <c r="C225" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBE1C7254B74E01B26BDFFD74&amp;numero=617922&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>617922</v>
+      </c>
+      <c r="C226" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC531AAE6B74E01B26BDFFD74&amp;numero=636935&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>636935</v>
+      </c>
+      <c r="C227" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC5E01838F74E01B26BDFFD74&amp;numero=638764&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>638764</v>
+      </c>
+      <c r="C228" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8B983AC4F7C30DF7DFFD74&amp;numero=32556&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>32556</v>
+      </c>
+      <c r="C229" t="n">
+        <v>114.53</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC937E6994F74E01B26BDFFD74&amp;numero=503522&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>503522</v>
+      </c>
+      <c r="C230" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB42C6CCD274E01B26BDFFD74&amp;numero=591246&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>591246</v>
+      </c>
+      <c r="C231" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8A7342F4F7C30DF7DFFD74&amp;numero=32544&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>32544</v>
+      </c>
+      <c r="C232" t="n">
+        <v>104.81</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC406C93B174E01B26BDFFD74&amp;numero=633801&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>633801</v>
+      </c>
+      <c r="C233" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBAE87A38D74E01B26BDFFD74&amp;numero=609324&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>609324</v>
+      </c>
+      <c r="C234" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB45449E1374E01B26BDFFD74&amp;numero=591664&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>591664</v>
+      </c>
+      <c r="C235" t="n">
+        <v>375.5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA691B3A6E74E01B26BDFFD74&amp;numero=554727&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>554727</v>
+      </c>
+      <c r="C236" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBDE64725274E01B26BDFFD74&amp;numero=617354&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>617354</v>
+      </c>
+      <c r="C237" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAFB84EAEE74E01B26BDFFD74&amp;numero=579291&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>579291</v>
+      </c>
+      <c r="C238" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC1B3C9E4B74E01B26BDFFD74&amp;numero=627562&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>627562</v>
+      </c>
+      <c r="C239" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB5145BCCD74E01B26BDFFD74&amp;numero=593678&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>593678</v>
+      </c>
+      <c r="C240" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC2844308A74E01B26BDFFD74&amp;numero=629748&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>629748</v>
+      </c>
+      <c r="C241" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB0A594DF274E01B26BDFFD74&amp;numero=581779&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>581779</v>
+      </c>
+      <c r="C242" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCADD9C0EAB74E01B26BDFFD74&amp;numero=574273&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>574273</v>
+      </c>
+      <c r="C243" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA9295D1D174E01B26BDFFD74&amp;numero=561686&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>561686</v>
+      </c>
+      <c r="C244" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBC58C954A74E01B26BDFFD74&amp;numero=613186&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>613186</v>
+      </c>
+      <c r="C245" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC1A54AF4B74E01B26BDFFD74&amp;numero=627410&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>627410</v>
+      </c>
+      <c r="C246" t="n">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA8429315374E01B26BDFFD74&amp;numero=559266&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>559266</v>
+      </c>
+      <c r="C247" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC8581837074E01B26BDFFD74&amp;numero=645391&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>645391</v>
+      </c>
+      <c r="C248" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAC840D54E74E01B26BDFFD74&amp;numero=570690&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>570690</v>
+      </c>
+      <c r="C249" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC8627D59274E01B26BDFFD74&amp;numero=645500&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>645500</v>
+      </c>
+      <c r="C250" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA659D102A74E01B26BDFFD74&amp;numero=554141&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>554141</v>
+      </c>
+      <c r="C251" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8D8082F4F7C30DF7DFFD74&amp;numero=32576&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>32576</v>
+      </c>
+      <c r="C252" t="n">
+        <v>81.03</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC2839822C74E01B26BDFFD74&amp;numero=629741&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>629741</v>
+      </c>
+      <c r="C253" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC059FC81374E01B26BDFFD74&amp;numero=623936&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>623936</v>
+      </c>
+      <c r="C254" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB3FB98CD374E01B26BDFFD74&amp;numero=590734&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>590734</v>
+      </c>
+      <c r="C255" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8C124CB4F7C30DF7DFFD74&amp;numero=32561&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>32561</v>
+      </c>
+      <c r="C256" t="n">
+        <v>9.710000000000001</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCCB02BC12B74E01B26BDFFD74&amp;numero=652549&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>652549</v>
+      </c>
+      <c r="C257" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA9AC6608E74E01B26BDFFD74&amp;numero=563060&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>563060</v>
+      </c>
+      <c r="C258" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB95EFDCCC74E01B26BDFFD74&amp;numero=605198&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>605198</v>
+      </c>
+      <c r="C259" t="n">
+        <v>187.3</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAE07D0E8B74E01B26BDFFD74&amp;numero=574756&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>574756</v>
+      </c>
+      <c r="C260" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBEA703F6C74E01B26BDFFD74&amp;numero=619375&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>619375</v>
+      </c>
+      <c r="C261" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA6C48858D74E01B26BDFFD74&amp;numero=555260&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>555260</v>
+      </c>
+      <c r="C262" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBE9B1834F74E01B26BDFFD74&amp;numero=619250&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>619250</v>
+      </c>
+      <c r="C263" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB51C2DC0A74E01B26BDFFD74&amp;numero=593760&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>593760</v>
+      </c>
+      <c r="C264" t="n">
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCCA764229274E01B26BDFFD74&amp;numero=651076&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>651076</v>
+      </c>
+      <c r="C265" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8DFA94E4F7C30DF7DFFD74&amp;numero=32581&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>32581</v>
+      </c>
+      <c r="C266" t="n">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC979EA8CE74E01B26BDFFD74&amp;numero=648430&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>648430</v>
+      </c>
+      <c r="C267" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA4134FEB374E01B26BDFFD74&amp;numero=548033&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>548033</v>
+      </c>
+      <c r="C268" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8CEE06C4F7C30DF7DFFD74&amp;numero=32570&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>32570</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1650.56</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC832B5E6F74E01B26BDFFD74&amp;numero=644999&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>644999</v>
+      </c>
+      <c r="C270" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA3A04C8F074E01B26BDFFD74&amp;numero=546827&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>546827</v>
+      </c>
+      <c r="C271" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC44A0524A74E01B26BDFFD74&amp;numero=634506&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>634506</v>
+      </c>
+      <c r="C272" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC79BEF44E74E01B26BDFFD74&amp;numero=643418&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>643418</v>
+      </c>
+      <c r="C273" t="n">
+        <v>449.5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC761F384B74E01B26BDFFD74&amp;numero=642810&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>642810</v>
+      </c>
+      <c r="C274" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB4AA8030B74E01B26BDFFD74&amp;numero=592568&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>592568</v>
+      </c>
+      <c r="C275" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC2C8ED28B74E01B26BDFFD74&amp;numero=630468&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>630468</v>
+      </c>
+      <c r="C276" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAC355FBB374E01B26BDFFD74&amp;numero=569865&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>569865</v>
+      </c>
+      <c r="C277" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC93E85D9AC74E01B26BDFFD74&amp;numero=504633&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>504633</v>
+      </c>
+      <c r="C278" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAB322A4EB74E01B26BDFFD74&amp;numero=567147&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>567147</v>
+      </c>
+      <c r="C279" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB077E688F74E01B26BDFFD74&amp;numero=581300&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>581300</v>
+      </c>
+      <c r="C280" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAFD36446F74E01B26BDFFD74&amp;numero=579575&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>579575</v>
+      </c>
+      <c r="C281" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC8D5684B274E01B26BDFFD74&amp;numero=646705&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>646705</v>
+      </c>
+      <c r="C282" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA38A75BCE74E01B26BDFFD74&amp;numero=546598&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>546598</v>
+      </c>
+      <c r="C283" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8B6766B4F7C30DF7DFFD74&amp;numero=32554&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>32554</v>
+      </c>
+      <c r="C284" t="n">
+        <v>27.14</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBF7E11AD274E01B26BDFFD74&amp;numero=621630&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>621630</v>
+      </c>
+      <c r="C285" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8DE22A84F7C30DF7DFFD74&amp;numero=32580&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>32580</v>
+      </c>
+      <c r="C286" t="n">
+        <v>221.57</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8B7FD114F7C30DF7DFFD74&amp;numero=32555&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>32555</v>
+      </c>
+      <c r="C287" t="n">
+        <v>366.36</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB2C1A5B5274E01B26BDFFD74&amp;numero=587442&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>587442</v>
+      </c>
+      <c r="C288" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBDBC695ED74E01B26BDFFD74&amp;numero=616915&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>616915</v>
+      </c>
+      <c r="C289" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8AA41704F7C30DF7DFFD74&amp;numero=32546&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>32546</v>
+      </c>
+      <c r="C290" t="n">
+        <v>218.05</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA3567C12F74E01B26BDFFD74&amp;numero=546053&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>546053</v>
+      </c>
+      <c r="C291" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8ABC80B4F7C30DF7DFFD74&amp;numero=32547&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>32547</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB6B6D4B4D74E01B26BDFFD74&amp;numero=598066&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>598066</v>
+      </c>
+      <c r="C293" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8B3692A4F7C30DF7DFFD74&amp;numero=32552&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>32552</v>
+      </c>
+      <c r="C294" t="n">
+        <v>41.63</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8C73F4D4F7C30DF7DFFD74&amp;numero=32565&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>32565</v>
+      </c>
+      <c r="C295" t="n">
+        <v>266.26</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8DC9C0B4F7C30DF7DFFD74&amp;numero=32579&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>32579</v>
+      </c>
+      <c r="C296" t="n">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761AF54D7668A548713376FEBA97A7C86CECA3D34DFFD74&amp;numero=30185&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>30185</v>
+      </c>
+      <c r="C297" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7F96D7EA74E01B26BDFFD74&amp;numero=558499&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>558499</v>
+      </c>
+      <c r="C298" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC1F68BBD074E01B26BDFFD74&amp;numero=628262&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>628262</v>
+      </c>
+      <c r="C299" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA9EB6FBAF74E01B26BDFFD74&amp;numero=563721&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>563721</v>
+      </c>
+      <c r="C300" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B269B3CAD32DBA9F4D208C8A426EE4F7C30DF7DFFD74&amp;numero=32542&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>32542</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA7FA4938F74E01B26BDFFD74&amp;numero=558508&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>558508</v>
+      </c>
+      <c r="C302" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC6449CA4A74E01B26BDFFD74&amp;numero=639818&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>639818</v>
+      </c>
+      <c r="C303" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC8613FF6B74E01B26BDFFD74&amp;numero=645487&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>645487</v>
+      </c>
+      <c r="C304" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA5F2702AE74E01B26BDFFD74&amp;numero=553057&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>553057</v>
+      </c>
+      <c r="C305" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBA1D3FDAB74E01B26BDFFD74&amp;numero=607193&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>607193</v>
+      </c>
+      <c r="C306" t="n">
+        <v>654.5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA5583AA0C74E01B26BDFFD74&amp;numero=551440&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>551440</v>
+      </c>
+      <c r="C307" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDC93E6BE91074E01B26BDFFD74&amp;numero=504616&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>504616</v>
+      </c>
+      <c r="C308" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA444FFA4D74E01B26BDFFD74&amp;numero=548554&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>548554</v>
+      </c>
+      <c r="C309" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBC572A4AE74E01B26BDFFD74&amp;numero=613169&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>613169</v>
+      </c>
+      <c r="C310" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCAB14FB9AB74E01B26BDFFD74&amp;numero=566841&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>566841</v>
+      </c>
+      <c r="C311" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCBFF6B577074E01B26BDFFD74&amp;numero=622895&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>622895</v>
+      </c>
+      <c r="C312" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB9907CB2B74E01B26BDFFD74&amp;numero=605717&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>605717</v>
+      </c>
+      <c r="C313" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA87AEFCAB74E01B26BDFFD74&amp;numero=559857&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>559857</v>
+      </c>
+      <c r="C314" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA6DB0A10B74E01B26BDFFD74&amp;numero=555496&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>555496</v>
+      </c>
+      <c r="C315" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA5586B74D74E01B26BDFFD74&amp;numero=551442&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>551442</v>
+      </c>
+      <c r="C316" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC2689AF4F74E01B26BDFFD74&amp;numero=629458&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>629458</v>
+      </c>
+      <c r="C317" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCB83D130CC74E01B26BDFFD74&amp;numero=602158&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>602158</v>
+      </c>
+      <c r="C318" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCA79B4CD0A74E01B26BDFFD74&amp;numero=557512&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>557512</v>
+      </c>
+      <c r="C319" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCC9B384A4F74E01B26BDFFD74&amp;numero=649034&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>649034</v>
+      </c>
+      <c r="C320" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://siat.impuestos.gob.bo/consulta/QR?nit=1009379021&amp;cuf=451084124B761B5B5CACAF9DFD04A4BDCCA8CF4B4A74E01B26BDFFD74&amp;numero=651314&amp;t=2</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>651314</v>
+      </c>
+      <c r="C321" t="n">
         <v>29.5</v>
       </c>
     </row>
